--- a/UnitTests/TuningCorrector/test_10 Manual SLS/9/180613MadixKo_Test_10_TC_1butanal.xlsx
+++ b/UnitTests/TuningCorrector/test_10 Manual SLS/9/180613MadixKo_Test_10_TC_1butanal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4bda48a8e8bf62b/2021LaneLeeCCIFall2021/Data Analysis/220113_Manual_TuningCorrection_Unit_Test_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanel\OneDrive\2021LaneLeeCCIFall2021\Data Analysis\220222_Manual_TuningCorrection_Unit_Test_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{8FAFFF76-7F1E-4F57-AA30-C47387B52DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DB442B-3BBF-48AF-B07C-A2E088C9961E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87273C0D-7821-4365-A3F6-A7A5DE56591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25335" yWindow="360" windowWidth="35010" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23790" yWindow="930" windowWidth="28800" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5988,8 +5988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,12 +6051,11 @@
         <v>20</v>
       </c>
       <c r="W3" s="14">
-        <f>(6*5)+10+8</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" ref="X3:X8" si="0">(0.6*(W3/14))+0.4</f>
-        <v>2.4571428571428569</v>
+        <v>2.1142857142857143</v>
       </c>
       <c r="Y3" t="s">
         <v>2</v>
@@ -9120,7 +9119,7 @@
       </c>
       <c r="E55" s="16">
         <f t="shared" si="17"/>
-        <v>59.710290873806038</v>
+        <v>69.393040745234032</v>
       </c>
       <c r="F55" s="16" t="e">
         <f t="shared" si="17"/>
@@ -9140,19 +9139,19 @@
       </c>
       <c r="J55" s="16">
         <f t="shared" si="17"/>
-        <v>47.76823269904483</v>
+        <v>55.514432596187227</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" si="17"/>
-        <v>4.9758575728171701</v>
+        <v>5.7827533954361687</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="17"/>
-        <v>19.90343029126868</v>
+        <v>23.131013581744675</v>
       </c>
       <c r="M55" s="16">
         <f t="shared" si="17"/>
-        <v>5.307581411004981</v>
+        <v>6.1682702884652478</v>
       </c>
       <c r="N55" s="16" t="e">
         <f t="shared" si="17"/>
@@ -9172,11 +9171,11 @@
       </c>
       <c r="R55" s="16">
         <f t="shared" si="17"/>
-        <v>59.710290873806038</v>
+        <v>69.393040745234032</v>
       </c>
       <c r="S55" s="16">
         <f t="shared" si="17"/>
-        <v>11.373388737867817</v>
+        <v>13.217722046711245</v>
       </c>
       <c r="T55" s="16" t="e">
         <f t="shared" si="17"/>
@@ -9184,19 +9183,19 @@
       </c>
       <c r="U55" s="16">
         <f t="shared" si="17"/>
-        <v>4.1179510947452433</v>
+        <v>4.7857269479471745</v>
       </c>
       <c r="V55" s="16">
         <f t="shared" si="17"/>
-        <v>19.90343029126868</v>
+        <v>23.131013581744675</v>
       </c>
       <c r="W55" s="16">
         <f t="shared" si="17"/>
-        <v>3.1018332921457681</v>
+        <v>3.6048332854667029</v>
       </c>
       <c r="X55" s="16">
         <f t="shared" si="17"/>
-        <v>2.3884116349522415</v>
+        <v>2.775721629809361</v>
       </c>
       <c r="Y55" s="16" t="e">
         <f t="shared" si="17"/>
@@ -9228,7 +9227,7 @@
       </c>
       <c r="AF55" s="16">
         <f t="shared" si="17"/>
-        <v>7.2376110150067925</v>
+        <v>8.4112776660889743</v>
       </c>
       <c r="AG55" s="16" t="e">
         <f t="shared" si="17"/>
@@ -10357,7 +10356,7 @@
         <v>39</v>
       </c>
       <c r="D68" s="23">
-        <v>11.373388737867817</v>
+        <v>13.217722046711245</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>20</v>
@@ -10369,7 +10368,7 @@
       </c>
       <c r="K68" s="22">
         <f t="shared" ref="K68:K75" si="27">ROUND(D68,1)</f>
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>22</v>
